--- a/biology/Médecine/Pierre_Fauvel/Pierre_Fauvel.xlsx
+++ b/biology/Médecine/Pierre_Fauvel/Pierre_Fauvel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Fauvel (1830-1895) est un médecin français, spécialiste du larynx.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Charles Henri Fauvel est le fils de Jean Baptiste Fauvel, docteur en médecine, et de Eugénie Soyez[1]. Il a pour frère le peintre Hippolyte Fauvel.
-Au début des années 1860, il est un des premiers médecins à utiliser la cocaïne pour ses propriétés anesthésiques, et met au point avec Angelo Marianii un « vin de coca »[2].
-En 1876, il est nommé chevalier de la Légion d'honneur[3].
-Il meurt le 17 décembre 1895[4] et est inhumé au cimetière du Père-Lachaise (90e division).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Charles Henri Fauvel est le fils de Jean Baptiste Fauvel, docteur en médecine, et de Eugénie Soyez. Il a pour frère le peintre Hippolyte Fauvel.
+Au début des années 1860, il est un des premiers médecins à utiliser la cocaïne pour ses propriétés anesthésiques, et met au point avec Angelo Marianii un « vin de coca ».
+En 1876, il est nommé chevalier de la Légion d'honneur.
+Il meurt le 17 décembre 1895 et est inhumé au cimetière du Père-Lachaise (90e division).
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Du laryngoscope au point de vue pratique, thèse de médecine de Paris, 1861
 Traité pratique des maladies du larynx, précédé d’un traité complet de laryngoscopie, 1876</t>
